--- a/Especificação do Analytics.xlsx
+++ b/Especificação do Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vini\Desktop\OneSolutions\OneSolutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecsa\Documents\Grupo 05\OneSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B2D563-106D-4AC4-88A4-C8EB16496FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B27E264-AD28-44B8-821C-0308DE114889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9BFF0B1-EFE9-4450-A9D5-1D57A667A204}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9BFF0B1-EFE9-4450-A9D5-1D57A667A204}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Temperatura</t>
   </si>
   <si>
     <t>13°C</t>
-  </si>
-  <si>
-    <t>22°C</t>
-  </si>
-  <si>
-    <t>27°C</t>
   </si>
   <si>
     <t>17°C</t>
@@ -102,6 +96,9 @@
   </si>
   <si>
     <t>36°C</t>
+  </si>
+  <si>
+    <t>25°C</t>
   </si>
 </sst>
 </file>
@@ -708,6 +705,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,36 +742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3237,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC930B6-8A37-43B2-987A-B39BC4A0DF10}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -3279,56 +3276,56 @@
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="R2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
+      <c r="E2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="R2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>14</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="43" t="s">
         <v>8</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="43" t="s">
-        <v>10</v>
       </c>
       <c r="V3" s="44"/>
       <c r="W3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,10 +3352,10 @@
         <v>0.39</v>
       </c>
       <c r="U4" s="7">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="V4" s="8">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="W4" s="6">
         <v>0.55000000000000004</v>
@@ -3405,16 +3402,16 @@
       <c r="F6" s="25">
         <v>0.52</v>
       </c>
-      <c r="R6" s="48" t="s">
+      <c r="R6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="50"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
     </row>
     <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24">
@@ -3431,26 +3428,26 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="43" t="s">
         <v>8</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="43" t="s">
-        <v>10</v>
       </c>
       <c r="V7" s="44"/>
       <c r="W7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3471,25 +3468,25 @@
         <v>1</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="X8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3611,14 +3608,14 @@
       <c r="F16" s="25">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
     </row>
     <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24">
@@ -3635,22 +3632,22 @@
         <v>0.39</v>
       </c>
       <c r="J17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="18" t="s">
+      <c r="N17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>16</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3936,33 +3933,33 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="53"/>
+      <c r="J35" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J36" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="18" t="s">
+      <c r="N36" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="35" t="s">
         <v>16</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Especificação do Analytics.xlsx
+++ b/Especificação do Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecsa\Documents\Grupo 05\OneSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B27E264-AD28-44B8-821C-0308DE114889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B9DFB-A422-40F4-A967-AD5A35FA2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9BFF0B1-EFE9-4450-A9D5-1D57A667A204}"/>
   </bookViews>
@@ -3234,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC930B6-8A37-43B2-987A-B39BC4A0DF10}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Especificação do Analytics.xlsx
+++ b/Especificação do Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecsa\Documents\Grupo 05\OneSolutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luscalves\Documents\Bandtec\OneSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B9DFB-A422-40F4-A967-AD5A35FA2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED2A1F-3F17-4C2A-8680-CDC4F29C9528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9BFF0B1-EFE9-4450-A9D5-1D57A667A204}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F9BFF0B1-EFE9-4450-A9D5-1D57A667A204}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Temperatura</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Umidade</t>
-  </si>
-  <si>
-    <t>28°C</t>
   </si>
   <si>
     <t>EMERGÊNCIA</t>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>25°C</t>
+  </si>
+  <si>
+    <t>20°C</t>
+  </si>
+  <si>
+    <t>26°C</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +255,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8497B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -568,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -576,12 +597,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,9 +610,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +702,9 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +757,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,6 +785,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF305496"/>
+      <color rgb="FF8497B0"/>
+      <color rgb="FF33CCFF"/>
       <color rgb="FFDB1F1F"/>
     </mruColors>
   </colors>
@@ -769,7 +805,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1276,7 +1312,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2936,7 +2972,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3235,16 +3271,16 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C22"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="4.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="4.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
@@ -3262,471 +3298,487 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="2:25" s="17" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:25" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="56" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="R2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="60"/>
+      <c r="F2" s="55"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
         <v>9</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <v>25</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>0.5</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>27.5</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24">
+      <c r="D5" s="18"/>
+      <c r="E5" s="21">
         <v>2</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>0.5</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="R5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="58"/>
     </row>
-    <row r="6" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
+    <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>29.1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="24">
+      <c r="D6" s="18"/>
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>0.52</v>
       </c>
-      <c r="R6" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="60"/>
+      <c r="R6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+    <row r="7" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>32.700000000000003</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24">
+      <c r="D7" s="18"/>
+      <c r="E7" s="21">
         <v>4</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>9</v>
+      <c r="R7" s="60">
+        <v>0.27</v>
+      </c>
+      <c r="S7" s="61">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T7" s="59">
+        <v>0.42</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.67</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>23.9</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="24">
+      <c r="D8" s="18"/>
+      <c r="E8" s="21">
         <v>5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>0.57899999999999996</v>
       </c>
-      <c r="R8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
     </row>
-    <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+    <row r="9" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>24.5</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="24">
+      <c r="D9" s="18"/>
+      <c r="E9" s="21">
         <v>6</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>0.6</v>
       </c>
+      <c r="R9" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>27</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="24">
+      <c r="D10" s="18"/>
+      <c r="E10" s="21">
         <v>7</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>0.53</v>
       </c>
+      <c r="R10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="42"/>
+      <c r="W10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+    <row r="11" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>29.5</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24">
+      <c r="D11" s="18"/>
+      <c r="E11" s="21">
         <v>8</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>0.47099999999999997</v>
+      </c>
+      <c r="R11" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>9</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>31.7</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24">
+      <c r="D12" s="18"/>
+      <c r="E12" s="21">
         <v>9</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>10</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>37.200000000000003</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24">
+      <c r="D13" s="18"/>
+      <c r="E13" s="21">
         <v>10</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>30.1</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="24">
+      <c r="D14" s="18"/>
+      <c r="E14" s="21">
         <v>11</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>0.378</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>12</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>24.4</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24">
+      <c r="D15" s="18"/>
+      <c r="E15" s="21">
         <v>12</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>24</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24">
+      <c r="D16" s="18"/>
+      <c r="E16" s="21">
         <v>13</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>14</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>21.1</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="24">
+      <c r="D17" s="18"/>
+      <c r="E17" s="21">
         <v>14</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>0.39</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="M17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="18" t="s">
+      <c r="O17" s="32" t="s">
         <v>15</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>15</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="29">
         <v>18.5</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="24">
+      <c r="D18" s="18"/>
+      <c r="E18" s="21">
         <v>15</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>0.39600000000000002</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="37">
         <v>12.2</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="38">
         <f>_xlfn.QUARTILE.EXC(C4:C34,1)</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="38">
         <v>23.4</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="38">
         <v>24</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="38">
         <f>_xlfn.QUARTILE.EXC(C4:C34,3)</f>
         <v>27.5</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="39">
         <v>37.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>16</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="29">
         <v>17</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="24">
+      <c r="D19" s="18"/>
+      <c r="E19" s="21">
         <v>16</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>17</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="29">
         <v>16.600000000000001</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="24">
+      <c r="D20" s="18"/>
+      <c r="E20" s="21">
         <v>17</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>0.41</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>18</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="29">
         <v>14.9</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24">
+      <c r="D21" s="18"/>
+      <c r="E21" s="21">
         <v>18</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>0.42399999999999999</v>
       </c>
       <c r="G21" s="1"/>
@@ -3739,262 +3791,262 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <v>19</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="29">
         <v>14</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="24">
+      <c r="D22" s="18"/>
+      <c r="E22" s="21">
         <v>19</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <v>20</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="29">
         <v>12.2</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="24">
+      <c r="D23" s="18"/>
+      <c r="E23" s="21">
         <v>20</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+      <c r="B24" s="21">
         <v>21</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="29">
         <v>18</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="24">
+      <c r="D24" s="18"/>
+      <c r="E24" s="21">
         <v>21</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
+      <c r="B25" s="21">
         <v>22</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="29">
         <v>21.5</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="24">
+      <c r="D25" s="18"/>
+      <c r="E25" s="21">
         <v>22</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
         <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
+      <c r="B26" s="21">
         <v>23</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="29">
         <v>26.5</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="24">
+      <c r="D26" s="18"/>
+      <c r="E26" s="21">
         <v>23</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>0.68</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+      <c r="B27" s="21">
         <v>24</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="29">
         <v>29.3</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="24">
+      <c r="D27" s="18"/>
+      <c r="E27" s="21">
         <v>24</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="22">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
+      <c r="B28" s="21">
         <v>25</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="29">
         <v>24.1</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="24">
+      <c r="D28" s="18"/>
+      <c r="E28" s="21">
         <v>25</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <v>0.505</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24">
+      <c r="B29" s="21">
         <v>26</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>26.4</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="24">
+      <c r="D29" s="18"/>
+      <c r="E29" s="21">
         <v>26</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="22">
         <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24">
+      <c r="B30" s="21">
         <v>27</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>21.5</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="24">
+      <c r="D30" s="18"/>
+      <c r="E30" s="21">
         <v>27</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="22">
         <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24">
+      <c r="B31" s="21">
         <v>28</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="29">
         <v>19.7</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="24">
+      <c r="D31" s="18"/>
+      <c r="E31" s="21">
         <v>28</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="22">
         <v>0.22</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24">
+      <c r="B32" s="21">
         <v>29</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="29">
         <v>18.600000000000001</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="24">
+      <c r="D32" s="18"/>
+      <c r="E32" s="21">
         <v>29</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="22">
         <v>0.21</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24">
+      <c r="B33" s="21">
         <v>30</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <v>18.600000000000001</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="28">
+      <c r="D33" s="18"/>
+      <c r="E33" s="25">
         <v>30</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="26">
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
+      <c r="B34" s="23">
         <v>31</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="30">
         <v>20</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="23">
         <v>31</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="24">
         <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="M36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="18" t="s">
+      <c r="O36" s="32" t="s">
         <v>15</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J37" s="36">
+      <c r="J37" s="33">
         <v>0.21</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="34">
         <f>_xlfn.QUARTILE.EXC(F4:F34,1)</f>
         <v>0.39</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="34">
         <v>0.45</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="34">
         <v>0.47099999999999997</v>
       </c>
-      <c r="N37" s="37">
+      <c r="N37" s="34">
         <f>_xlfn.QUARTILE.EXC(F4:F34,3)</f>
         <v>0.53</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="35">
         <v>0.68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U10:V10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="J16:O16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="R9:Y9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
